--- a/src/Document/Q-A.xlsx
+++ b/src/Document/Q-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07_HKI.2019.2020\CNPMM\Mean-FinalTermProject\src\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462EBF6-B267-489C-BEBB-C6E5867ED150}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB80482-9D1A-4CC5-BA95-AC32C47CE63C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -49,21 +49,12 @@
     <t>Trang chủ</t>
   </si>
   <si>
-    <t>Sản phẩm: mã, tên,giá,mã loại,TSKT_CD, number,</t>
-  </si>
-  <si>
     <t>Liem.TT</t>
   </si>
   <si>
-    <t>Code mà không comment là chó nó xem</t>
-  </si>
-  <si>
     <t>Mã comment</t>
   </si>
   <si>
-    <t>Gửi</t>
-  </si>
-  <si>
     <t>Đối ứng nghiệp vụ</t>
   </si>
   <si>
@@ -83,13 +74,67 @@
   </si>
   <si>
     <t>Nội dung  Y.C</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Lấy tin tức: (5 tin tức mới nhất được đưa lên)</t>
+  </si>
+  <si>
+    <t>Dữ liệu cần lấy: id,image,titile. Dữ liệu tra về được sắp xếp từ mới nhất đế cũ nhất (Chỉ cần lấy 5 tin mới nhất)</t>
+  </si>
+  <si>
+    <t>Nhận xét của khách hàng</t>
+  </si>
+  <si>
+    <t>Dữ liệu cần lấy: image, name, feedback. (lấy 4 cái mới nhất). Không quan tâm thứ tự.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Resquest</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Sản phẩm: mã, tên,giá,ảnh, mã loại,TSKT_CD, number,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code mà không comment là chó nó xem
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fix: 04.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Dữ liệu trả về chưa có tên ảnh đại diện có dòng xe. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +173,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,21 +266,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,17 +301,301 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -538,28 +872,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="52.28515625" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="18.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="57" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -584,957 +919,1094 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>10</v>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7">
         <v>43741</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>43744</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>43741</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
         <v>1001</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43742</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43744</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43742</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43744</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="18"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="18"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="18"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="18"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="18"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43741</v>
+      </c>
+      <c r="G10" s="7">
+        <v>43741</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43741</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="10">
-        <v>43741</v>
-      </c>
-      <c r="G10" s="10">
-        <v>43741</v>
-      </c>
-      <c r="H10" s="10">
-        <v>43741</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="18"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="18"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="18"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="18"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="18"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="18"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="18"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="18"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="18"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="18"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="18"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="18"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="18"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="18"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="18"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="18"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="18"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="18"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="18"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="18"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="18"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="18"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="18"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="18"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="18"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="18"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="18"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="18"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="18"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="18"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="18"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="18"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="18"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="18"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="18"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="18"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="18"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="18"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="18"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="18"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="18"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="18"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="18"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="18"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="18"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="18"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="18"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="18"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="18"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="6"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="18"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="18"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="18"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="18"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="18"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="18"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="18"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="18"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="6"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="18"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="6"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"Request"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Doing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Resquest"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Fix"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Fix"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"Resquest"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 E1:E1048576" xr:uid="{736F95BC-E265-467D-B8FB-83E57FB14B19}">
+      <formula1>"Thinh.PVP, Liem.TT, Hung.HLH"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{EDA83BA0-9087-40BD-B611-7A5A450B5711}">
+      <formula1>"Resquest,  Doing, OK, Fix, "</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
